--- a/routes_log.xlsx
+++ b/routes_log.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7513,44 +7513,269 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
+      <c r="J93" s="2" t="inlineStr"/>
+      <c r="K93" s="2" t="inlineStr"/>
+      <c r="L93" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-16 19:29</t>
+        </is>
+      </c>
+      <c r="M93" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="N93" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="O93" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="P93" s="2" t="inlineStr">
+        <is>
+          <t>00:05:07</t>
+        </is>
+      </c>
+      <c r="Q93" s="2" t="inlineStr">
+        <is>
+          <t>00:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>UCS</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>Be→C13→C16→C43→C14→C22→C21→C19→C18→B→C17→C32→C33→C34→D</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="H94" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
+      <c r="L94" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:32</t>
+        </is>
+      </c>
+      <c r="M94" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="N94" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="O94" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="P94" s="2" t="inlineStr">
+        <is>
+          <t>00:05:07</t>
+        </is>
+      </c>
+      <c r="Q94" s="2" t="inlineStr">
+        <is>
+          <t>00:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>UCS</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>Be→C13→C16→C43→C14→C22→C21→C19→C18→B→C17→C32→C33→C34→D</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="H95" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr"/>
+      <c r="K95" s="2" t="inlineStr"/>
+      <c r="L95" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:45</t>
+        </is>
+      </c>
+      <c r="M95" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="N95" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="O95" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="P95" s="2" t="inlineStr">
+        <is>
+          <t>00:05:07</t>
+        </is>
+      </c>
+      <c r="Q95" s="2" t="inlineStr">
+        <is>
+          <t>00:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>UCS</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="inlineStr">
+        <is>
+          <t>B→C17→C32→C31→C30→C29→C28→C</t>
+        </is>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="H96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J96" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K93" s="2" t="inlineStr">
+      <c r="K96" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L93" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-16 19:29</t>
-        </is>
-      </c>
-      <c r="M93" s="2" t="inlineStr">
-        <is>
-          <t>00:04:44</t>
-        </is>
-      </c>
-      <c r="N93" s="2" t="inlineStr">
-        <is>
-          <t>00:04:44</t>
-        </is>
-      </c>
-      <c r="O93" s="2" t="inlineStr">
-        <is>
-          <t>00:04:44</t>
-        </is>
-      </c>
-      <c r="P93" s="2" t="inlineStr">
-        <is>
-          <t>00:05:07</t>
-        </is>
-      </c>
-      <c r="Q93" s="2" t="inlineStr">
-        <is>
-          <t>00:08:12</t>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:45</t>
+        </is>
+      </c>
+      <c r="M96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="N96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="O96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="P96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="Q96" s="2" t="inlineStr">
+        <is>
+          <t>00:04:11</t>
         </is>
       </c>
     </row>

--- a/routes_log.xlsx
+++ b/routes_log.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7738,44 +7738,269 @@
           <t>Normal</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
+      <c r="J96" s="2" t="inlineStr"/>
+      <c r="K96" s="2" t="inlineStr"/>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:45</t>
+        </is>
+      </c>
+      <c r="M96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="N96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="O96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="P96" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="Q96" s="2" t="inlineStr">
+        <is>
+          <t>00:04:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>UCS</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>B→C17→C32→C31→C30→C29→C28→C</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J97" s="2" t="inlineStr"/>
+      <c r="K97" s="2" t="inlineStr"/>
+      <c r="L97" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:50</t>
+        </is>
+      </c>
+      <c r="M97" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="N97" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="O97" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="P97" s="2" t="inlineStr">
+        <is>
+          <t>00:03:18</t>
+        </is>
+      </c>
+      <c r="Q97" s="2" t="inlineStr">
+        <is>
+          <t>00:04:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>UCS</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>Be→C13→C16→C43→C14→C22→C21→C19→C18→B→C17→C32→C33→C34→D</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="inlineStr"/>
+      <c r="K98" s="2" t="inlineStr"/>
+      <c r="L98" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:50</t>
+        </is>
+      </c>
+      <c r="M98" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="N98" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="O98" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="P98" s="2" t="inlineStr">
+        <is>
+          <t>00:05:07</t>
+        </is>
+      </c>
+      <c r="Q98" s="2" t="inlineStr">
+        <is>
+          <t>00:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>Be</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>UCS</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>Be→C13→C16→C43→C14→C22→C21→C19→C18→B→C17→C32→C33→C34→D</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K96" s="2" t="inlineStr">
+      <c r="K99" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-17 07:45</t>
-        </is>
-      </c>
-      <c r="M96" s="2" t="inlineStr">
-        <is>
-          <t>00:03:18</t>
-        </is>
-      </c>
-      <c r="N96" s="2" t="inlineStr">
-        <is>
-          <t>00:03:18</t>
-        </is>
-      </c>
-      <c r="O96" s="2" t="inlineStr">
-        <is>
-          <t>00:03:18</t>
-        </is>
-      </c>
-      <c r="P96" s="2" t="inlineStr">
-        <is>
-          <t>00:03:18</t>
-        </is>
-      </c>
-      <c r="Q96" s="2" t="inlineStr">
-        <is>
-          <t>00:04:11</t>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-17 07:53</t>
+        </is>
+      </c>
+      <c r="M99" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="N99" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="O99" s="2" t="inlineStr">
+        <is>
+          <t>00:04:44</t>
+        </is>
+      </c>
+      <c r="P99" s="2" t="inlineStr">
+        <is>
+          <t>00:05:07</t>
+        </is>
+      </c>
+      <c r="Q99" s="2" t="inlineStr">
+        <is>
+          <t>00:08:12</t>
         </is>
       </c>
     </row>
